--- a/example_file/descriptors-basic-info.xlsx
+++ b/example_file/descriptors-basic-info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究生\研究\实验【特征选择】\数据与实验\【Newest】52：16：16\最新数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programing\PythonWorkspace\mlplat\example_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6444CCC-1CFE-4A51-9C45-49A4E47CEE0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBC542B-6DC9-4AC5-BB47-21EEBCE00BD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F09263D2-C923-4721-BBF7-1C911C8E9DEA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>T</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -617,6 +617,10 @@
   </si>
   <si>
     <t>M位的平均有效价态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1375,7 +1379,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1447,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>72</v>
